--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_5.xlsx
@@ -518,1046 +518,1046 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_12</t>
+          <t>model_18_5_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9874866216666841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7925021680823281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9631367779553062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9753137771306772</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9756831524992178</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.08367701853369228</v>
       </c>
       <c r="H2" t="n">
-        <v>1.480475396471403</v>
+        <v>1.387538957473136</v>
       </c>
       <c r="I2" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1225496362177268</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.2671824109696113</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.1948662065009828</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.373209571974175</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.2892698023190327</v>
       </c>
       <c r="N2" t="n">
-        <v>1.019788248238175</v>
+        <v>1.00566643547169</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3015846166747948</v>
       </c>
       <c r="P2" t="n">
-        <v>156.4605258518975</v>
+        <v>158.9615818173555</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.313964366749</v>
+        <v>252.8150203322069</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_22</t>
+          <t>model_18_5_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9873948664824211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7924937173321998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9610650560655283</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9732578309804856</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9738651018391881</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.08429058587335257</v>
       </c>
       <c r="H3" t="n">
-        <v>1.480475396471403</v>
+        <v>1.387595467678155</v>
       </c>
       <c r="I3" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1294369550643745</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.2894342010526754</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.209435390904315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.37324118427464</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.2903284103792679</v>
       </c>
       <c r="N3" t="n">
-        <v>1.019788248238175</v>
+        <v>1.005707984989092</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3026882918717749</v>
       </c>
       <c r="P3" t="n">
-        <v>156.4605258518975</v>
+        <v>158.9469701886211</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.313964366749</v>
+        <v>252.8004087034725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_21</t>
+          <t>model_18_5_11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9872292152309519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7924097671881571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9591153113933253</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9713229352224678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9721540536265159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.08539829655468187</v>
       </c>
       <c r="H4" t="n">
-        <v>1.480475396471403</v>
+        <v>1.388156842677923</v>
       </c>
       <c r="I4" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1359187677503688</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.3103758459668713</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.2231470973388345</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.37398968769344</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.2922298693745762</v>
       </c>
       <c r="N4" t="n">
-        <v>1.019788248238175</v>
+        <v>1.00578299687655</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3046706999130763</v>
       </c>
       <c r="P4" t="n">
-        <v>156.4605258518975</v>
+        <v>158.9208582501061</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.313964366749</v>
+        <v>252.7742967649575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_20</t>
+          <t>model_18_5_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9874747054776661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7924066883123313</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9653228659683226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9774821989311014</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9776009487867816</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.08375670214452451</v>
       </c>
       <c r="H5" t="n">
-        <v>1.480475396471403</v>
+        <v>1.388177431134748</v>
       </c>
       <c r="I5" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1152821138505748</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.2437132813379421</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.1794976975942585</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.374188554705552</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.2894075018801767</v>
       </c>
       <c r="N5" t="n">
-        <v>1.019788248238175</v>
+        <v>1.005671831481812</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3017281783913341</v>
       </c>
       <c r="P5" t="n">
-        <v>156.4605258518975</v>
+        <v>158.9596781717451</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.313964366749</v>
+        <v>252.8131166865966</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_19</t>
+          <t>model_18_5_12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9870127918357663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7922725343078669</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.95729016496094</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9695133471675395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9705534249663206</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.08684552079482545</v>
       </c>
       <c r="H6" t="n">
-        <v>1.480475396471403</v>
+        <v>1.389074519580323</v>
       </c>
       <c r="I6" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1419863608398095</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.3299612682462101</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.23597394239015</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.3752423434529</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.2946956409498204</v>
       </c>
       <c r="N6" t="n">
-        <v>1.019788248238175</v>
+        <v>1.005880999923427</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3072414444891294</v>
       </c>
       <c r="P6" t="n">
-        <v>156.4605258518975</v>
+        <v>158.8872487233254</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.313964366749</v>
+        <v>252.7406872381769</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_18</t>
+          <t>model_18_5_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9873210806553245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7921708080784825</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9676117236737345</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9797481263310338</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9796058734521979</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.08478399203890036</v>
       </c>
       <c r="H7" t="n">
-        <v>1.480475396471403</v>
+        <v>1.389754763344623</v>
       </c>
       <c r="I7" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1076729396223351</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.2191888350911103</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.163430974148411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.376532108524501</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.2911769084919001</v>
       </c>
       <c r="N7" t="n">
-        <v>1.019788248238175</v>
+        <v>1.005741397439098</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3035729123056951</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4605258518975</v>
+        <v>158.9352970542607</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.313964366749</v>
+        <v>252.7887355691121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_17</t>
+          <t>model_18_5_13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9867634877705853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7920991967682497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9555898243094407</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9678298636764132</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9690638689782097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.08851261822663024</v>
       </c>
       <c r="H8" t="n">
-        <v>1.480475396471403</v>
+        <v>1.39023362850589</v>
       </c>
       <c r="I8" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1476390443744938</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.3481818433567752</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.2479106921997073</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.376837003344009</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.297510702709382</v>
       </c>
       <c r="N8" t="n">
-        <v>1.019788248238175</v>
+        <v>1.005993892330301</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3101763492557767</v>
       </c>
       <c r="P8" t="n">
-        <v>156.4605258518975</v>
+        <v>158.8492203165993</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.313964366749</v>
+        <v>252.7026588314508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_16</t>
+          <t>model_18_5_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9864949369410919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7919029208135395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9540123009488939</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9662704026046688</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.967683586098414</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.0903084188600158</v>
       </c>
       <c r="H9" t="n">
-        <v>1.480475396471403</v>
+        <v>1.391546126718804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1528834289734741</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.3650601066361573</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.2589717678048157</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.378642483048237</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.300513591805788</v>
       </c>
       <c r="N9" t="n">
-        <v>1.019788248238175</v>
+        <v>1.00611550025309</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3133070775578542</v>
       </c>
       <c r="P9" t="n">
-        <v>156.4605258518975</v>
+        <v>158.8090491815794</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.313964366749</v>
+        <v>252.6624876964308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_15</t>
+          <t>model_18_5_6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9869774717679399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7917481708542141</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9699841787646251</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9820894760125141</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9816791179618045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.08708170625101432</v>
       </c>
       <c r="H10" t="n">
-        <v>1.480475396471403</v>
+        <v>1.392580940409371</v>
       </c>
       <c r="I10" t="n">
-        <v>1.215282750129902</v>
+        <v>0.09978585075150782</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.1938480830395595</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.1468167607836626</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.380723582198903</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.2950960966380516</v>
       </c>
       <c r="N10" t="n">
-        <v>1.019788248238175</v>
+        <v>1.005896993916405</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3076589484050662</v>
       </c>
       <c r="P10" t="n">
-        <v>156.4605258518975</v>
+        <v>158.8818168974893</v>
       </c>
       <c r="Q10" t="n">
-        <v>250.313964366749</v>
+        <v>252.7352554123407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_14</t>
+          <t>model_18_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9862175141062816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7916937071960886</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9525536995601379</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9648313649539094</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9664092876937095</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.09216354663380705</v>
       </c>
       <c r="H11" t="n">
-        <v>1.480475396471403</v>
+        <v>1.392945139142039</v>
       </c>
       <c r="I11" t="n">
-        <v>1.215282750129902</v>
+        <v>0.157732464398592</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.3806350105427294</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.2691835230936962</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.380568282457088</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3035844966954127</v>
       </c>
       <c r="N11" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006241125687722</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3165087172262797</v>
       </c>
       <c r="P11" t="n">
-        <v>156.4605258518975</v>
+        <v>158.7683811986706</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.313964366749</v>
+        <v>252.621819713522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_13</t>
+          <t>model_18_5_16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9859388673458092</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.791479112761371</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9512092780777638</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9635074655895378</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9652363589479392</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.09402685880413676</v>
       </c>
       <c r="H12" t="n">
-        <v>1.480475396471403</v>
+        <v>1.394380133115112</v>
       </c>
       <c r="I12" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1622019153703082</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.3949637568206191</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.2785829394932462</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.382540533972289</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3066379930865332</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006367305352841</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.319692207280379</v>
       </c>
       <c r="P12" t="n">
-        <v>156.4605258518975</v>
+        <v>158.7283496111337</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.313964366749</v>
+        <v>252.5817881259851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_23</t>
+          <t>model_18_5_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.985664681108396</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7912647105859474</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9499734171703518</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9622929733267029</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9641598985304091</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.09586034343623014</v>
       </c>
       <c r="H13" t="n">
-        <v>1.480475396471403</v>
+        <v>1.395813841449401</v>
       </c>
       <c r="I13" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1663104630288776</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.4081083748776566</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.2872092944517095</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.384507415463875</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3096132158617105</v>
       </c>
       <c r="N13" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006491465158462</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3227940914486558</v>
       </c>
       <c r="P13" t="n">
-        <v>156.4605258518975</v>
+        <v>158.6897258051432</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.313964366749</v>
+        <v>252.5431643199946</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_24</t>
+          <t>model_18_5_5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9863828681553403</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7910800005933605</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9724118722194776</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9844748628884308</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9837934961021156</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.09105782334636636</v>
       </c>
       <c r="H14" t="n">
-        <v>1.480475396471403</v>
+        <v>1.397048998020341</v>
       </c>
       <c r="I14" t="n">
-        <v>1.215282750129902</v>
+        <v>0.0917151251546076</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.1680307103302377</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.1298729177424227</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.387377637430053</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3017578886232576</v>
       </c>
       <c r="N14" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006166248382487</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.314604346666893</v>
       </c>
       <c r="P14" t="n">
-        <v>156.4605258518975</v>
+        <v>158.7925211057427</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.313964366749</v>
+        <v>252.6459596205941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_10</t>
+          <t>model_18_5_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9853989604265034</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7910545437573829</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9488396319275665</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9611814659286138</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9631741255256643</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.09763721885957714</v>
       </c>
       <c r="H15" t="n">
-        <v>1.480475396471403</v>
+        <v>1.397219227999741</v>
       </c>
       <c r="I15" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1700796660812833</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.4201383734725841</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.2951089140837162</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.386436459769702</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3124695486916719</v>
       </c>
       <c r="N15" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006611791504979</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3257720242806129</v>
       </c>
       <c r="P15" t="n">
-        <v>156.4605258518975</v>
+        <v>158.6529930349613</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.313964366749</v>
+        <v>252.5064315498127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_9</t>
+          <t>model_18_5_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9851444065913053</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7908514870077029</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9478017380002717</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9601660160394148</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9622731112221869</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.09933942152765911</v>
       </c>
       <c r="H16" t="n">
-        <v>1.480475396471403</v>
+        <v>1.398577069419841</v>
       </c>
       <c r="I16" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1735300840362942</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.4311287283377742</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.3023293088867887</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.388302049717207</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3151815691433417</v>
       </c>
       <c r="N16" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006727061166201</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3285995010575665</v>
       </c>
       <c r="P16" t="n">
-        <v>156.4605258518975</v>
+        <v>158.6184255849523</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.313964366749</v>
+        <v>252.4718640998037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_8</t>
+          <t>model_18_5_20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.984902905665794</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7906574688412273</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9468536195162622</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9592401098249212</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9614511758816953</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.1009543393285633</v>
       </c>
       <c r="H17" t="n">
-        <v>1.480475396471403</v>
+        <v>1.399874469792435</v>
       </c>
       <c r="I17" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1766820487551076</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.4411499396032506</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.308915994179179</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.390078966838362</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.317733125954099</v>
       </c>
       <c r="N17" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006836420075867</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3312596829242084</v>
       </c>
       <c r="P17" t="n">
-        <v>156.4605258518975</v>
+        <v>158.5861739004366</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.313964366749</v>
+        <v>252.4396124152881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_7</t>
+          <t>model_18_5_21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9846755386132223</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7904737975250475</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9459890351857267</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9583971813020151</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9607026006360156</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.102474743856039</v>
       </c>
       <c r="H18" t="n">
-        <v>1.480475396471403</v>
+        <v>1.401102680729458</v>
       </c>
       <c r="I18" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1795563090424533</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.4502730718141726</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.3149147988515956</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.391756923137699</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3201167659714795</v>
       </c>
       <c r="N18" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006939378741182</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3337447994319439</v>
       </c>
       <c r="P18" t="n">
-        <v>156.4605258518975</v>
+        <v>158.55627782434</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.313964366749</v>
+        <v>252.4097163391914</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_6</t>
+          <t>model_18_5_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9844627065341172</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7903011230612391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.945201247889635</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9576305895714406</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9600215182974217</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.1038979529490164</v>
       </c>
       <c r="H19" t="n">
-        <v>1.480475396471403</v>
+        <v>1.402257355664038</v>
       </c>
       <c r="I19" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1821752620584416</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.4585700003434365</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.3203727403726896</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.393336292915168</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3223320538652902</v>
       </c>
       <c r="N19" t="n">
-        <v>1.019788248238175</v>
+        <v>1.00703575553172</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3360543967176723</v>
       </c>
       <c r="P19" t="n">
-        <v>156.4605258518975</v>
+        <v>158.5286921663959</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.313964366749</v>
+        <v>252.3821306812473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_5</t>
+          <t>model_18_5_23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.984264595912183</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7901397393160845</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9444847092884745</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9569344202770064</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9594027843469655</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.1052227195901059</v>
       </c>
       <c r="H20" t="n">
-        <v>1.480475396471403</v>
+        <v>1.40333652951099</v>
       </c>
       <c r="I20" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1845573529348635</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.4661047370876756</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.3253310450112695</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.394808328682281</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.324380516662308</v>
       </c>
       <c r="N20" t="n">
-        <v>1.019788248238175</v>
+        <v>1.00712546600203</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3381900668168616</v>
       </c>
       <c r="P20" t="n">
-        <v>156.4605258518975</v>
+        <v>158.5033520726207</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.313964366749</v>
+        <v>252.3567905874721</v>
       </c>
     </row>
     <row r="21">
@@ -1567,272 +1567,272 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9854605720591516</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7900921165216268</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9748551806960332</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9868617721602849</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9859121669637694</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.09722522158836297</v>
       </c>
       <c r="H21" t="n">
-        <v>1.480475396471403</v>
+        <v>1.403654983356812</v>
       </c>
       <c r="I21" t="n">
-        <v>1.215282750129902</v>
+        <v>0.08359248832686239</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.1421968605187208</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.1128946744227916</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.397284222843738</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3118095918799852</v>
       </c>
       <c r="N21" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006583891897743</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3250839717411537</v>
       </c>
       <c r="P21" t="n">
-        <v>156.4605258518975</v>
+        <v>158.6614502396269</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.313964366749</v>
+        <v>252.5148887544783</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_3</t>
+          <t>model_18_5_24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9840809660793854</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7899897250405918</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9438334302105602</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9563028610052904</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9588412040478219</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.1064506531275609</v>
       </c>
       <c r="H22" t="n">
-        <v>1.480475396471403</v>
+        <v>1.404339675661962</v>
       </c>
       <c r="I22" t="n">
-        <v>1.215282750129902</v>
+        <v>0.1867224923244111</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.4729401906028015</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.3298313414636063</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.396179845002941</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3262677629303283</v>
       </c>
       <c r="N22" t="n">
-        <v>1.019788248238175</v>
+        <v>1.007208619133863</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3401576570656499</v>
       </c>
       <c r="P22" t="n">
-        <v>156.4605258518975</v>
+        <v>158.4801475042556</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.313964366749</v>
+        <v>252.333586019107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_2</t>
+          <t>model_18_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9841145595017823</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7886910668130044</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9772566507262814</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9891952924728603</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9879860842653266</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.1062260137573094</v>
       </c>
       <c r="H23" t="n">
-        <v>1.480475396471403</v>
+        <v>1.413023809209611</v>
       </c>
       <c r="I23" t="n">
-        <v>1.215282750129902</v>
+        <v>0.07560894097883412</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.1169408468117702</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.09627506955261973</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.411484145765869</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3259233249666391</v>
       </c>
       <c r="N23" t="n">
-        <v>1.019788248238175</v>
+        <v>1.007193407018061</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3397985556647616</v>
       </c>
       <c r="P23" t="n">
-        <v>156.4605258518975</v>
+        <v>158.484372499072</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.313964366749</v>
+        <v>252.3378110139234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_1</t>
+          <t>model_18_5_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9822251795566778</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7867593831285042</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9795364517463087</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9914064647421187</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9899521775374873</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.1188603061500184</v>
       </c>
       <c r="H24" t="n">
-        <v>1.480475396471403</v>
+        <v>1.425940986902448</v>
       </c>
       <c r="I24" t="n">
-        <v>1.215282750129902</v>
+        <v>0.0680298751740491</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.09300902293182917</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.08051952650532616</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.431301974792399</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3447612306365354</v>
       </c>
       <c r="N24" t="n">
-        <v>1.019788248238175</v>
+        <v>1.008048975295089</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.359438429978866</v>
       </c>
       <c r="P24" t="n">
-        <v>156.4605258518975</v>
+        <v>158.2596127466549</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.313964366749</v>
+        <v>252.1130512615063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_11</t>
+          <t>model_18_5_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9796437588077754</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7841499308948281</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6773313073630868</v>
+        <v>0.9815789123849187</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8670478473198842</v>
+        <v>0.9934123237860067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7823425750416684</v>
+        <v>0.9917303909433207</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.1361222785842778</v>
       </c>
       <c r="H25" t="n">
-        <v>1.480475396471403</v>
+        <v>1.443390406004464</v>
       </c>
       <c r="I25" t="n">
-        <v>1.215282750129902</v>
+        <v>0.06123983365387985</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6110656028611159</v>
+        <v>0.07129933254103228</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9131741764955089</v>
+        <v>0.06626958309745606</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.458479806668501</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3689475282262747</v>
       </c>
       <c r="N25" t="n">
-        <v>1.019788248238175</v>
+        <v>1.009217920539875</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3846543883295386</v>
       </c>
       <c r="P25" t="n">
-        <v>156.4605258518975</v>
+        <v>157.9884033799271</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.313964366749</v>
+        <v>251.8418418947785</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9563009404423196</v>
+        <v>0.976186157049497</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7786039971166357</v>
+        <v>0.7806784638646951</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6773308625370982</v>
+        <v>0.9832158422895666</v>
       </c>
       <c r="E26" t="n">
-        <v>0.867048108493004</v>
+        <v>0.9951171686266992</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7823425433035046</v>
+        <v>0.9932211955482138</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2922158124778766</v>
+        <v>0.1592432774626779</v>
       </c>
       <c r="H26" t="n">
-        <v>1.480476090715913</v>
+        <v>1.466604122019599</v>
       </c>
       <c r="I26" t="n">
-        <v>1.215284425499602</v>
+        <v>0.05579795545654518</v>
       </c>
       <c r="J26" t="n">
-        <v>0.611064402475062</v>
+        <v>0.05284756058399587</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9131743096518744</v>
+        <v>0.05432282733561845</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8587920146334391</v>
+        <v>1.495196169598987</v>
       </c>
       <c r="M26" t="n">
-        <v>0.540569896015193</v>
+        <v>0.3990529757597077</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01978825338461</v>
+        <v>1.010783626996454</v>
       </c>
       <c r="O26" t="n">
-        <v>0.563583075622509</v>
+        <v>0.4160414870913376</v>
       </c>
       <c r="P26" t="n">
-        <v>156.4605253317469</v>
+        <v>157.6746443983121</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.3139638465984</v>
+        <v>251.5280829131635</v>
       </c>
     </row>
   </sheetData>
